--- a/supernova_project/data/vtiger.xlsx
+++ b/supernova_project/data/vtiger.xlsx
@@ -16,12 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>opportunity name</t>
   </si>
   <si>
     <t>bosz</t>
+  </si>
+  <si>
+    <t>group selection</t>
+  </si>
+  <si>
+    <t>sales stage selection</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>Team Selling</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Needs Analysis</t>
+  </si>
+  <si>
+    <t>Value Proposition</t>
   </si>
 </sst>
 </file>
@@ -353,25 +374,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/supernova_project/data/vtiger.xlsx
+++ b/supernova_project/data/vtiger.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView activeTab="1" windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="opportunity" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="opportunity" r:id="rId1" sheetId="1"/>
+    <sheet name="samsung" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="40">
   <si>
     <t>opportunity name</t>
   </si>
@@ -43,19 +43,233 @@
   </si>
   <si>
     <t>Value Proposition</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy M31 64 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blue Smartphone</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy M31 128 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black Smartphone</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 Plus 128 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phantom Violet</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 Plus 256 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phantom Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phantom Silver</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 Ultra 256 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 GB RAM</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 256 GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 128 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phantom White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phantom Gray</t>
+  </si>
+  <si>
+    <t>Samsung A12 128 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blue</t>
+  </si>
+  <si>
+    <t>Samsung A12 64 GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy M01 Core 32 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy M01 Core 16 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,16 +290,40 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="25">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -94,10 +332,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -253,7 +491,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -262,13 +500,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -278,7 +516,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -287,7 +525,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -296,7 +534,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -306,12 +544,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -342,7 +580,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -361,7 +599,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -374,17 +612,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -425,19 +663,830 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="24">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s" s="24">
+        <v>36</v>
+      </c>
+      <c r="C73" t="s" s="24">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -449,6 +1498,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>